--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -762,6 +762,261 @@
         <v>51</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -762,6 +762,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -767,6 +767,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -772,6 +772,526 @@
         <v>51</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -1292,6 +1292,526 @@
         <v>50</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Include/TestData/Excel_Write_Testdata.xlsx
+++ b/Include/TestData/Excel_Write_Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="52">
   <si>
     <t>Learn HTML</t>
   </si>
@@ -1292,6 +1292,791 @@
         <v>50</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
